--- a/MILP/model_output/master_solution_decisions.xlsx
+++ b/MILP/model_output/master_solution_decisions.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atfan\OneDrive\Desktop\M.Sc DDS\Sem 4\Master's Thesis\Code\MILP\model_output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095EC6D4-8CBC-4856-B7FF-40C30DE4DCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>origin</t>
   </si>
@@ -41,6 +35,9 @@
   </si>
   <si>
     <t>TEU_y</t>
+  </si>
+  <si>
+    <t>cap_per_dep_TEU</t>
   </si>
   <si>
     <t>Aarau</t>
@@ -67,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +128,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,24 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,62 +444,71 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.106682832077412</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>515.74848</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="H2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.837499998696144</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>249.020128</v>
       </c>
       <c r="G3">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -531,21 +517,24 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>392.0444</v>
+        <v>509.6577200000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -554,21 +543,24 @@
         <v>1.4</v>
       </c>
       <c r="F5">
-        <v>248.76244199999999</v>
+        <v>248.7624419999997</v>
       </c>
       <c r="G5">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -582,40 +574,46 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -628,40 +626,46 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -669,21 +673,24 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>359.86703999999997</v>
+        <v>276.8208</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -692,21 +699,24 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>242.42514399999999</v>
+        <v>242.425144</v>
       </c>
       <c r="G11">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -715,21 +725,24 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>292.80160000000001</v>
+        <v>292.8016</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -738,90 +751,102 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>243.30408800000001</v>
+        <v>243.304088</v>
       </c>
       <c r="G13">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.2952228419867939</v>
+        <v>8.295222841986794</v>
       </c>
       <c r="F14">
-        <v>594.40311873015867</v>
+        <v>594.4031187301587</v>
       </c>
       <c r="G14">
         <v>1764</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>252.3478242539684</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>252.34782425396841</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8.2614276340698751</v>
+        <v>8.261427634069875</v>
       </c>
       <c r="F16">
-        <v>592.51688776699029</v>
+        <v>592.5168877669903</v>
       </c>
       <c r="G16">
         <v>1442</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -830,10 +855,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>252.26802217475731</v>
+        <v>252.2680221747573</v>
       </c>
       <c r="G17">
         <v>0</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/master_solution_decisions.xlsx
+++ b/MILP/model_output/master_solution_decisions.xlsx
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7.106682832077412</v>
+        <v>6.342146727268994</v>
       </c>
       <c r="F2">
         <v>515.74848</v>
       </c>
       <c r="G2">
-        <v>147</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="H2">
         <v>10000000</v>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.010625</v>
       </c>
       <c r="F3">
         <v>249.020128</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="H3">
         <v>80</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>509.6577200000001</v>
+        <v>392.0444</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>1.4</v>
       </c>
       <c r="F5">
-        <v>248.7624419999997</v>
+        <v>248.762442</v>
       </c>
       <c r="G5">
         <v>112</v>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.295222841986794</v>
+        <v>18.68936771379288</v>
       </c>
       <c r="F14">
         <v>594.4031187301587</v>
       </c>
       <c r="G14">
-        <v>1764</v>
+        <v>1693.440000000003</v>
       </c>
       <c r="H14">
         <v>10000000</v>
@@ -806,7 +806,7 @@
         <v>252.3478242539684</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>70.5600000000007</v>
       </c>
       <c r="H15">
         <v>80</v>
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8.261427634069875</v>
+        <v>18.61888993138674</v>
       </c>
       <c r="F16">
         <v>592.5168877669903</v>
       </c>
       <c r="G16">
-        <v>1442</v>
+        <v>1384.320000000001</v>
       </c>
       <c r="H16">
         <v>10000000</v>
@@ -858,7 +858,7 @@
         <v>252.2680221747573</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>57.68</v>
       </c>
       <c r="H17">
         <v>80</v>

--- a/MILP/model_output/master_solution_decisions.xlsx
+++ b/MILP/model_output/master_solution_decisions.xlsx
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.342146727268994</v>
+        <v>10.48436093167934</v>
       </c>
       <c r="F2">
         <v>515.74848</v>
       </c>
       <c r="G2">
-        <v>66.15000000000001</v>
+        <v>117.6</v>
       </c>
       <c r="H2">
         <v>10000000</v>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.010625</v>
+        <v>1.929375</v>
       </c>
       <c r="F3">
         <v>249.020128</v>
       </c>
       <c r="G3">
-        <v>80.84999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="H3">
         <v>80</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>392.0444</v>
+        <v>509.65772</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>18.68936771379288</v>
+        <v>19.37741327286923</v>
       </c>
       <c r="F14">
         <v>594.4031187301587</v>
       </c>
       <c r="G14">
-        <v>1693.440000000003</v>
+        <v>1711.080000000003</v>
       </c>
       <c r="H14">
         <v>10000000</v>
@@ -806,7 +806,7 @@
         <v>252.3478242539684</v>
       </c>
       <c r="G15">
-        <v>70.5600000000007</v>
+        <v>52.9200000000003</v>
       </c>
       <c r="H15">
         <v>80</v>
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>18.61888993138674</v>
+        <v>19.79669867147875</v>
       </c>
       <c r="F16">
         <v>592.5168877669903</v>
       </c>
       <c r="G16">
-        <v>1384.320000000001</v>
+        <v>1398.74</v>
       </c>
       <c r="H16">
         <v>10000000</v>
@@ -852,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>1.514100000000009</v>
       </c>
       <c r="F17">
         <v>252.2680221747573</v>
       </c>
       <c r="G17">
-        <v>57.68</v>
+        <v>43.26000000000022</v>
       </c>
       <c r="H17">
         <v>80</v>

--- a/MILP/model_output/master_solution_decisions.xlsx
+++ b/MILP/model_output/master_solution_decisions.xlsx
@@ -462,16 +462,16 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.48436093167934</v>
+        <v>3.287119813793048</v>
       </c>
       <c r="F2">
-        <v>515.74848</v>
+        <v>255.74848</v>
       </c>
       <c r="G2">
-        <v>117.6</v>
+        <v>2.939999999999987</v>
       </c>
       <c r="H2">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -494,7 +494,7 @@
         <v>249.020128</v>
       </c>
       <c r="G3">
-        <v>29.4</v>
+        <v>144.06</v>
       </c>
       <c r="H3">
         <v>80</v>
@@ -514,16 +514,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>509.65772</v>
+        <v>249.65772</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H4">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,16 +537,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>248.762442</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -589,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>276.8208</v>
+        <v>229.86704</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -693,16 +693,16 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>242.425144</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>80</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>292.8016</v>
+        <v>250.64208</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>19.37741327286923</v>
+        <v>1764</v>
       </c>
       <c r="F14">
-        <v>594.4031187301587</v>
+        <v>334.4031187301584</v>
       </c>
       <c r="G14">
-        <v>1711.080000000003</v>
+        <v>1764</v>
       </c>
       <c r="H14">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -797,16 +797,16 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>252.3478242539684</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>52.9200000000003</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>80</v>
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>19.79669867147875</v>
+        <v>1442</v>
       </c>
       <c r="F16">
-        <v>592.5168877669903</v>
+        <v>332.5168877669899</v>
       </c>
       <c r="G16">
-        <v>1398.74</v>
+        <v>1442</v>
       </c>
       <c r="H16">
-        <v>10000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -849,16 +849,16 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.514100000000009</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>252.2680221747573</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>43.26000000000022</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>80</v>
